--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -854,7 +855,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -924,7 +925,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -958,7 +959,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -994,7 +995,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1032,7 +1033,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1066,7 +1067,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1102,7 +1103,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1158,7 +1159,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1194,7 +1195,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1230,7 +1231,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1266,7 +1267,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1302,7 +1303,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1338,7 +1339,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1374,7 +1375,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1410,7 +1411,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1446,7 +1447,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1482,7 +1483,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1518,7 +1519,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1552,7 +1553,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1586,7 +1587,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1622,7 +1623,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1660,7 +1661,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1694,7 +1695,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1730,7 +1731,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1770,7 +1771,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1826,7 +1827,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1862,7 +1863,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1898,7 +1899,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1934,7 +1935,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1970,7 +1971,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2006,7 +2007,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2042,7 +2043,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2078,7 +2079,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2114,7 +2115,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2150,7 +2151,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2184,7 +2185,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2218,7 +2219,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2254,7 +2255,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2292,7 +2293,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2326,7 +2327,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2362,7 +2363,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2418,7 +2419,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2454,7 +2455,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2490,7 +2491,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2526,7 +2527,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2562,7 +2563,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2598,7 +2599,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2634,7 +2635,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2670,7 +2671,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2706,7 +2707,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2742,7 +2743,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2778,7 +2779,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2812,7 +2813,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2846,7 +2847,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2882,7 +2883,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2920,7 +2921,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2954,7 +2955,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2990,7 +2991,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3030,7 +3031,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3086,7 +3087,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3122,7 +3123,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3158,7 +3159,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3194,7 +3195,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3230,7 +3231,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3266,7 +3267,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3302,7 +3303,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3338,7 +3339,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3374,7 +3375,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3410,7 +3411,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3478,7 +3479,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3514,7 +3515,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3552,7 +3553,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3586,7 +3587,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3622,7 +3623,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3678,7 +3679,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3714,7 +3715,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3750,7 +3751,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3786,7 +3787,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3822,7 +3823,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3858,7 +3859,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3894,7 +3895,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3930,7 +3931,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3966,7 +3967,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4002,7 +4003,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4038,7 +4039,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4072,7 +4073,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4106,7 +4107,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4142,7 +4143,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4180,7 +4181,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4214,7 +4215,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4250,7 +4251,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4290,7 +4291,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4346,7 +4347,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4418,7 +4419,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4454,7 +4455,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4490,7 +4491,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4526,7 +4527,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4562,7 +4563,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4598,7 +4599,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4634,7 +4635,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4668,7 +4669,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4702,7 +4703,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4738,7 +4739,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4776,7 +4777,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4810,7 +4811,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4846,7 +4847,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4902,7 +4903,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4938,7 +4939,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4974,7 +4975,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5010,7 +5011,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5046,7 +5047,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5082,7 +5083,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5118,7 +5119,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5154,7 +5155,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5190,7 +5191,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5226,7 +5227,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5260,7 +5261,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5294,7 +5295,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5330,7 +5331,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5368,7 +5369,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5402,7 +5403,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5438,7 +5439,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5478,7 +5479,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -5534,7 +5535,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5570,7 +5571,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5606,7 +5607,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5642,7 +5643,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5678,7 +5679,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5714,7 +5715,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5750,7 +5751,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5786,7 +5787,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5822,7 +5823,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5856,7 +5857,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5890,7 +5891,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5926,7 +5927,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5964,7 +5965,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5998,7 +5999,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6034,7 +6035,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6090,7 +6091,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6126,7 +6127,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6162,7 +6163,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6198,7 +6199,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6234,7 +6235,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6270,7 +6271,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6306,7 +6307,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6342,7 +6343,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6378,7 +6379,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6414,7 +6415,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6448,7 +6449,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6482,7 +6483,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6518,7 +6519,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6556,7 +6557,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6590,7 +6591,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6626,7 +6627,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6666,7 +6667,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -6722,7 +6723,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6758,7 +6759,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6794,7 +6795,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6830,7 +6831,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6866,7 +6867,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6902,7 +6903,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6938,7 +6939,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6974,7 +6975,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7010,7 +7011,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7044,7 +7045,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7078,7 +7079,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7114,7 +7115,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7152,7 +7153,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7186,7 +7187,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7222,7 +7223,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7278,7 +7279,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7314,7 +7315,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7350,7 +7351,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7386,7 +7387,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7422,7 +7423,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7458,7 +7459,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7494,7 +7495,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7530,7 +7531,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7566,7 +7567,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7602,7 +7603,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7636,7 +7637,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7670,7 +7671,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7706,7 +7707,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7744,7 +7745,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7778,7 +7779,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7814,7 +7815,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7854,7 +7855,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -7910,7 +7911,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7950,7 +7951,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7986,7 +7987,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8022,7 +8023,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8058,7 +8059,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8094,7 +8095,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8128,7 +8129,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8164,7 +8165,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8200,7 +8201,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8236,7 +8237,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8272,7 +8273,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8306,7 +8307,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8340,7 +8341,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8376,7 +8377,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8414,7 +8415,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8448,7 +8449,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8484,7 +8485,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8520,7 +8521,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -8576,7 +8577,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8616,7 +8617,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8652,7 +8653,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8688,7 +8689,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8724,7 +8725,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8760,7 +8761,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8794,7 +8795,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8830,7 +8831,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8866,7 +8867,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8902,7 +8903,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -8938,7 +8939,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -8972,7 +8973,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9006,7 +9007,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9042,7 +9043,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9080,7 +9081,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9114,7 +9115,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9150,7 +9151,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9186,7 +9187,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9242,7 +9243,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9282,7 +9283,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9318,7 +9319,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9354,7 +9355,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9390,7 +9391,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9426,7 +9427,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9460,7 +9461,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9496,7 +9497,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9532,7 +9533,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9568,7 +9569,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9604,7 +9605,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9638,7 +9639,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9672,7 +9673,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9708,7 +9709,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9746,7 +9747,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9780,7 +9781,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9816,7 +9817,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9852,7 +9853,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C253" t="inlineStr">
@@ -9908,7 +9909,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -9948,7 +9949,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -9984,7 +9985,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10020,7 +10021,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10056,7 +10057,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10092,7 +10093,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10126,7 +10127,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10162,7 +10163,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10198,7 +10199,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10234,7 +10235,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10270,7 +10271,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10304,7 +10305,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10338,7 +10339,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10374,7 +10375,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10412,7 +10413,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10446,7 +10447,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10482,7 +10483,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10518,7 +10519,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -10574,7 +10575,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10614,7 +10615,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10650,7 +10651,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10686,7 +10687,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10722,7 +10723,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10758,7 +10759,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10792,7 +10793,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10828,7 +10829,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10864,7 +10865,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -10900,7 +10901,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -10936,7 +10937,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -10970,7 +10971,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11004,7 +11005,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11040,7 +11041,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11078,7 +11079,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11112,7 +11113,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11148,7 +11149,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11184,7 +11185,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11240,7 +11241,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11280,7 +11281,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11316,7 +11317,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11352,7 +11353,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11388,7 +11389,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11424,7 +11425,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11458,7 +11459,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11494,7 +11495,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11530,7 +11531,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11566,7 +11567,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11602,7 +11603,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11636,7 +11637,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11670,7 +11671,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11706,7 +11707,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11744,7 +11745,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11778,7 +11779,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11814,7 +11815,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -11850,7 +11851,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C307" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +501,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -567,7 +566,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -603,7 +602,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>42872</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -639,7 +638,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -675,7 +674,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -711,7 +710,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -747,7 +746,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -783,7 +782,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -819,7 +818,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -855,7 +854,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -891,7 +890,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -925,7 +924,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -959,7 +958,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -995,7 +994,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1033,7 +1032,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1067,7 +1066,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1103,7 +1102,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1158,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1195,7 +1194,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42872</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1231,7 +1230,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1267,7 +1266,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1303,7 +1302,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1339,7 +1338,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1375,7 +1374,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1411,7 +1410,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1447,7 +1446,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1483,7 +1482,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1519,7 +1518,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1553,7 +1552,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1587,7 +1586,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1623,7 +1622,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1661,7 +1660,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1695,7 +1694,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1731,7 +1730,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43111</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1771,7 +1770,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1827,7 +1826,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1863,7 +1862,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>42872</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1899,7 +1898,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1935,7 +1934,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1971,7 +1970,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2007,7 +2006,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2043,7 +2042,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2079,7 +2078,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2115,7 +2114,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2151,7 +2150,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2185,7 +2184,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2219,7 +2218,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2255,7 +2254,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2293,7 +2292,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2327,7 +2326,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2363,7 +2362,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2419,7 +2418,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2455,7 +2454,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>42872</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2491,7 +2490,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2527,7 +2526,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2563,7 +2562,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2599,7 +2598,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2635,7 +2634,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2671,7 +2670,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2707,7 +2706,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2743,7 +2742,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2779,7 +2778,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2813,7 +2812,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2847,7 +2846,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2883,7 +2882,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2921,7 +2920,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2955,7 +2954,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2991,7 +2990,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43111</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3031,7 +3030,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3087,7 +3086,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3123,7 +3122,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>42872</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3159,7 +3158,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3195,7 +3194,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3231,7 +3230,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3267,7 +3266,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3303,7 +3302,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3339,7 +3338,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3375,7 +3374,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3411,7 +3410,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3445,7 +3444,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3479,7 +3478,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3515,7 +3514,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3553,7 +3552,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3587,7 +3586,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3623,7 +3622,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3679,7 +3678,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3715,7 +3714,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>42872</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3751,7 +3750,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3787,7 +3786,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3823,7 +3822,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3859,7 +3858,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3895,7 +3894,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3931,7 +3930,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3967,7 +3966,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4003,7 +4002,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4039,7 +4038,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4073,7 +4072,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4107,7 +4106,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4143,7 +4142,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4181,7 +4180,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4215,7 +4214,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4251,7 +4250,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43111</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4291,7 +4290,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4347,7 +4346,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4383,7 +4382,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4419,7 +4418,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4455,7 +4454,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4491,7 +4490,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4527,7 +4526,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4563,7 +4562,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4599,7 +4598,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4635,7 +4634,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4669,7 +4668,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4703,7 +4702,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4739,7 +4738,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4777,7 +4776,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4811,7 +4810,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4847,7 +4846,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4903,7 +4902,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4939,7 +4938,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4975,7 +4974,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5011,7 +5010,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5047,7 +5046,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5083,7 +5082,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5119,7 +5118,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5155,7 +5154,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5191,7 +5190,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5227,7 +5226,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5261,7 +5260,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5295,7 +5294,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5331,7 +5330,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5369,7 +5368,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5403,7 +5402,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5439,7 +5438,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43111</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5479,7 +5478,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -5535,7 +5534,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5571,7 +5570,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5607,7 +5606,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5643,7 +5642,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5679,7 +5678,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5715,7 +5714,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5751,7 +5750,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5787,7 +5786,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5823,7 +5822,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5857,7 +5856,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5891,7 +5890,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5927,7 +5926,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5965,7 +5964,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5999,7 +5998,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6035,7 +6034,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6091,7 +6090,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6127,7 +6126,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6163,7 +6162,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6199,7 +6198,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6235,7 +6234,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6271,7 +6270,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6307,7 +6306,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6343,7 +6342,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6379,7 +6378,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6415,7 +6414,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6449,7 +6448,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6483,7 +6482,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6519,7 +6518,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6557,7 +6556,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6591,7 +6590,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6627,7 +6626,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43111</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6667,7 +6666,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -6723,7 +6722,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6759,7 +6758,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6795,7 +6794,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6831,7 +6830,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6867,7 +6866,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6903,7 +6902,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6939,7 +6938,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6975,7 +6974,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7011,7 +7010,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7045,7 +7044,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7079,7 +7078,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7115,7 +7114,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7153,7 +7152,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7187,7 +7186,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7223,7 +7222,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7279,7 +7278,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7315,7 +7314,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7351,7 +7350,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7387,7 +7386,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7423,7 +7422,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7459,7 +7458,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7495,7 +7494,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7531,7 +7530,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7567,7 +7566,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7603,7 +7602,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7637,7 +7636,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7671,7 +7670,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7707,7 +7706,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7745,7 +7744,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7779,7 +7778,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7815,7 +7814,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>43111</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7855,7 +7854,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -7911,7 +7910,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7951,7 +7950,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7987,7 +7986,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8023,7 +8022,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8059,7 +8058,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8095,7 +8094,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>42955</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8129,7 +8128,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8165,7 +8164,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8201,7 +8200,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8237,7 +8236,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8273,7 +8272,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8307,7 +8306,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8341,7 +8340,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8377,7 +8376,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8415,7 +8414,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8449,7 +8448,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8485,7 +8484,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8521,7 +8520,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -8577,7 +8576,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8617,7 +8616,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8653,7 +8652,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8689,7 +8688,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8725,7 +8724,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8761,7 +8760,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>42955</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8795,7 +8794,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8831,7 +8830,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8867,7 +8866,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8903,7 +8902,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -8939,7 +8938,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -8973,7 +8972,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9007,7 +9006,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9043,7 +9042,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9081,7 +9080,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9115,7 +9114,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9151,7 +9150,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9187,7 +9186,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9243,7 +9242,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9283,7 +9282,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9319,7 +9318,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9355,7 +9354,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9391,7 +9390,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9427,7 +9426,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>42955</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9461,7 +9460,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9497,7 +9496,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9533,7 +9532,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9569,7 +9568,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9605,7 +9604,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9639,7 +9638,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9673,7 +9672,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9709,7 +9708,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9747,7 +9746,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9781,7 +9780,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9817,7 +9816,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9853,7 +9852,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C253" t="inlineStr">
@@ -9909,7 +9908,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -9949,7 +9948,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -9985,7 +9984,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10021,7 +10020,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10057,7 +10056,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10093,7 +10092,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>42955</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10127,7 +10126,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10163,7 +10162,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10199,7 +10198,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10235,7 +10234,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10271,7 +10270,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10305,7 +10304,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10339,7 +10338,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10375,7 +10374,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10413,7 +10412,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10447,7 +10446,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10483,7 +10482,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10519,7 +10518,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -10575,7 +10574,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10615,7 +10614,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10651,7 +10650,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10687,7 +10686,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10723,7 +10722,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10759,7 +10758,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>42955</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10793,7 +10792,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10829,7 +10828,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10865,7 +10864,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -10901,7 +10900,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -10937,7 +10936,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -10971,7 +10970,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11005,7 +11004,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11041,7 +11040,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11079,7 +11078,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11113,7 +11112,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11149,7 +11148,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11185,7 +11184,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11241,7 +11240,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>42871</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11281,7 +11280,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>42907</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11317,7 +11316,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11353,7 +11352,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>42931</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11389,7 +11388,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11425,7 +11424,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>42955</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11459,7 +11458,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>42961</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11495,7 +11494,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11531,7 +11530,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11567,7 +11566,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>43000</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11603,7 +11602,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B300" s="4" t="n">
+      <c r="B300" s="3" t="n">
         <v>43007</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11637,7 +11636,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B301" s="4" t="n">
+      <c r="B301" s="3" t="n">
         <v>43010</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11671,7 +11670,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B302" s="4" t="n">
+      <c r="B302" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11707,7 +11706,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B303" s="4" t="n">
+      <c r="B303" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11745,7 +11744,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B304" s="4" t="n">
+      <c r="B304" s="3" t="n">
         <v>43060</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11779,7 +11778,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B305" s="4" t="n">
+      <c r="B305" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11815,7 +11814,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B306" s="4" t="n">
+      <c r="B306" s="3" t="n">
         <v>43075</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -11851,7 +11850,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B307" s="4" t="n">
+      <c r="B307" s="3" t="n">
         <v>43124</v>
       </c>
       <c r="C307" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-1.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -854,7 +855,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -924,7 +925,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -958,7 +959,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -994,7 +995,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1032,7 +1033,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1066,7 +1067,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1102,7 +1103,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1158,7 +1159,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1194,7 +1195,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1230,7 +1231,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1266,7 +1267,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1302,7 +1303,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1338,7 +1339,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1374,7 +1375,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1410,7 +1411,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1446,7 +1447,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1482,7 +1483,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1518,7 +1519,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1552,7 +1553,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1586,7 +1587,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1622,7 +1623,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1660,7 +1661,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1694,7 +1695,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1730,7 +1731,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1770,7 +1771,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRelay</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1826,7 +1827,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1862,7 +1863,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1898,7 +1899,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1934,7 +1935,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1970,7 +1971,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2006,7 +2007,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2042,7 +2043,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2078,7 +2079,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2114,7 +2115,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2150,7 +2151,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2184,7 +2185,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2218,7 +2219,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2254,7 +2255,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2292,7 +2293,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2326,7 +2327,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2362,7 +2363,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -2418,7 +2419,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2454,7 +2455,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2490,7 +2491,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2526,7 +2527,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2562,7 +2563,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2598,7 +2599,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2634,7 +2635,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2670,7 +2671,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2706,7 +2707,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2742,7 +2743,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2778,7 +2779,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2812,7 +2813,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2846,7 +2847,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2882,7 +2883,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2920,7 +2921,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2954,7 +2955,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2990,7 +2991,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -3030,7 +3031,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvRevenue</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -3086,7 +3087,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3122,7 +3123,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3158,7 +3159,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3194,7 +3195,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3230,7 +3231,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3266,7 +3267,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3302,7 +3303,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3338,7 +3339,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3374,7 +3375,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3410,7 +3411,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3478,7 +3479,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3514,7 +3515,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3552,7 +3553,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3586,7 +3587,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3622,7 +3623,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvGenius</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3678,7 +3679,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3714,7 +3715,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42872</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3750,7 +3751,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3786,7 +3787,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3822,7 +3823,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3858,7 +3859,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3894,7 +3895,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3930,7 +3931,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3966,7 +3967,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4002,7 +4003,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4038,7 +4039,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4072,7 +4073,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4106,7 +4107,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4142,7 +4143,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4180,7 +4181,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4214,7 +4215,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4250,7 +4251,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -4290,7 +4291,7 @@
           <t>FAR HYC W17-01-1MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4346,7 +4347,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4418,7 +4419,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4454,7 +4455,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4490,7 +4491,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4526,7 +4527,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4562,7 +4563,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4598,7 +4599,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4634,7 +4635,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4668,7 +4669,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4702,7 +4703,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4738,7 +4739,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4776,7 +4777,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4810,7 +4811,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4846,7 +4847,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -4902,7 +4903,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4938,7 +4939,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4974,7 +4975,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5010,7 +5011,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5046,7 +5047,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5082,7 +5083,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5118,7 +5119,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5154,7 +5155,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5190,7 +5191,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5226,7 +5227,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5260,7 +5261,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5294,7 +5295,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5330,7 +5331,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5368,7 +5369,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5402,7 +5403,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5438,7 +5439,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5478,7 +5479,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -5534,7 +5535,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5570,7 +5571,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5606,7 +5607,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5642,7 +5643,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5678,7 +5679,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5714,7 +5715,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5750,7 +5751,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5786,7 +5787,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5822,7 +5823,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5856,7 +5857,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5890,7 +5891,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5926,7 +5927,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5964,7 +5965,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5998,7 +5999,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6034,7 +6035,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6090,7 +6091,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6126,7 +6127,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6162,7 +6163,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6198,7 +6199,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6234,7 +6235,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6270,7 +6271,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6306,7 +6307,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6342,7 +6343,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6378,7 +6379,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6414,7 +6415,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6448,7 +6449,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6482,7 +6483,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6518,7 +6519,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6556,7 +6557,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6590,7 +6591,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6626,7 +6627,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6666,7 +6667,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C167" t="inlineStr">
@@ -6722,7 +6723,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6758,7 +6759,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6794,7 +6795,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6830,7 +6831,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6866,7 +6867,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6902,7 +6903,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6938,7 +6939,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -6974,7 +6975,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7010,7 +7011,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7044,7 +7045,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7078,7 +7079,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7114,7 +7115,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7152,7 +7153,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7186,7 +7187,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7222,7 +7223,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7278,7 +7279,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7314,7 +7315,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7350,7 +7351,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7386,7 +7387,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7422,7 +7423,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7458,7 +7459,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7494,7 +7495,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7530,7 +7531,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7566,7 +7567,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7602,7 +7603,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7636,7 +7637,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7670,7 +7671,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7706,7 +7707,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7744,7 +7745,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7778,7 +7779,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7814,7 +7815,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43111</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7854,7 +7855,7 @@
           <t>FAR HYC W17-01-1MgmtStandardCvRelay</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -7910,7 +7911,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7950,7 +7951,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7986,7 +7987,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8022,7 +8023,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8058,7 +8059,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8094,7 +8095,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8128,7 +8129,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8164,7 +8165,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8200,7 +8201,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8236,7 +8237,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8272,7 +8273,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8306,7 +8307,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8340,7 +8341,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8376,7 +8377,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8414,7 +8415,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8448,7 +8449,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8484,7 +8485,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8520,7 +8521,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C217" t="inlineStr">
@@ -8576,7 +8577,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8616,7 +8617,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8652,7 +8653,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8688,7 +8689,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8724,7 +8725,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8760,7 +8761,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8794,7 +8795,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8830,7 +8831,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8866,7 +8867,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8902,7 +8903,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -8938,7 +8939,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -8972,7 +8973,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9006,7 +9007,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9042,7 +9043,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9080,7 +9081,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9114,7 +9115,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9150,7 +9151,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9186,7 +9187,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9242,7 +9243,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9282,7 +9283,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9318,7 +9319,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9354,7 +9355,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9390,7 +9391,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9426,7 +9427,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9460,7 +9461,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9496,7 +9497,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9532,7 +9533,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9568,7 +9569,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9604,7 +9605,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9638,7 +9639,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9672,7 +9673,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9708,7 +9709,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9746,7 +9747,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9780,7 +9781,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9816,7 +9817,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9852,7 +9853,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRelay</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C253" t="inlineStr">
@@ -9908,7 +9909,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -9948,7 +9949,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -9984,7 +9985,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10020,7 +10021,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10056,7 +10057,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10092,7 +10093,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10126,7 +10127,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10162,7 +10163,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10198,7 +10199,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10234,7 +10235,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10270,7 +10271,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10304,7 +10305,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10338,7 +10339,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10374,7 +10375,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10412,7 +10413,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10446,7 +10447,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10482,7 +10483,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10518,7 +10519,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -10574,7 +10575,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10614,7 +10615,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10650,7 +10651,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10686,7 +10687,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10722,7 +10723,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10758,7 +10759,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10792,7 +10793,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10828,7 +10829,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10864,7 +10865,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -10900,7 +10901,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -10936,7 +10937,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -10970,7 +10971,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11004,7 +11005,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11040,7 +11041,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11078,7 +11079,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11112,7 +11113,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11148,7 +11149,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11184,7 +11185,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11240,7 +11241,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42871</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11280,7 +11281,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42907</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11316,7 +11317,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11352,7 +11353,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42931</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11388,7 +11389,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11424,7 +11425,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42955</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11458,7 +11459,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42961</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11494,7 +11495,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11530,7 +11531,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11566,7 +11567,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43000</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11602,7 +11603,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43007</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11636,7 +11637,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43010</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11670,7 +11671,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11706,7 +11707,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11744,7 +11745,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43060</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11778,7 +11779,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11814,7 +11815,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43075</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -11850,7 +11851,7 @@
           <t>FAR HYC W17-01-1MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43124</v>
       </c>
       <c r="C307" t="inlineStr">
